--- a/admin/src/main/resources/template/demo.xlsx
+++ b/admin/src/main/resources/template/demo.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">名称 :</t>
+    <t>名称:</t>
   </si>
   <si>
     <t>{name}</t>
@@ -36,24 +39,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
-    <font>
-      <sz val="11.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -61,17 +408,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -81,8 +721,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -127,13 +767,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -156,18 +796,19 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -190,6 +831,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,231 +1002,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="New Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.57421875"/>
-    <col customWidth="1" min="2" max="2" width="18.140625"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -600,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -609,9 +1045,42 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>